--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll1</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll1</t>
-  </si>
-  <si>
-    <t>Notch3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H2">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I2">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J2">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>75.932125901361</v>
+        <v>413.806360761948</v>
       </c>
       <c r="R2">
-        <v>303.728503605444</v>
+        <v>1655.225443047792</v>
       </c>
       <c r="S2">
-        <v>0.0194377241951951</v>
+        <v>0.1462356647671246</v>
       </c>
       <c r="T2">
-        <v>0.0158414579303594</v>
+        <v>0.1438642368176698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H3">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I3">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J3">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>45.54794324689101</v>
+        <v>40.2768774170455</v>
       </c>
       <c r="R3">
-        <v>273.2876594813461</v>
+        <v>241.661264502273</v>
       </c>
       <c r="S3">
-        <v>0.01165973358419559</v>
+        <v>0.01423350751056713</v>
       </c>
       <c r="T3">
-        <v>0.01425376581114045</v>
+        <v>0.02100403514943356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H4">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I4">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J4">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>1.058700687732</v>
+        <v>1.2194724975895</v>
       </c>
       <c r="R4">
-        <v>6.352204126392</v>
+        <v>7.316834985537001</v>
       </c>
       <c r="S4">
-        <v>0.0002710148271119212</v>
+        <v>0.0004309512570610657</v>
       </c>
       <c r="T4">
-        <v>0.0003313096177631535</v>
+        <v>0.0006359441159730372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H5">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I5">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J5">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>1546.511694696161</v>
+        <v>1678.647289818114</v>
       </c>
       <c r="R5">
-        <v>6186.046778784643</v>
+        <v>6714.589159272457</v>
       </c>
       <c r="S5">
-        <v>0.3958886627933715</v>
+        <v>0.5932197414367469</v>
       </c>
       <c r="T5">
-        <v>0.3226434089592496</v>
+        <v>0.5835998044859922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H6">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I6">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J6">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>254.644416755544</v>
+        <v>5.2134277327825</v>
       </c>
       <c r="R6">
-        <v>1527.866500533264</v>
+        <v>31.280566396695</v>
       </c>
       <c r="S6">
-        <v>0.0651859523486865</v>
+        <v>0.001842381225883076</v>
       </c>
       <c r="T6">
-        <v>0.07968838157792614</v>
+        <v>0.002718756427280848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H7">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I7">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J7">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>2.363271282349</v>
+        <v>1.328267126032</v>
       </c>
       <c r="R7">
-        <v>14.179627694094</v>
+        <v>7.969602756192</v>
       </c>
       <c r="S7">
-        <v>0.0006049694360513294</v>
+        <v>0.0004693983577389929</v>
       </c>
       <c r="T7">
-        <v>0.0007395617234395217</v>
+        <v>0.0006926795519457561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J8">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>0.888288452774</v>
+        <v>5.474426094330667</v>
       </c>
       <c r="R8">
-        <v>5.329730716644</v>
+        <v>32.846556565984</v>
       </c>
       <c r="S8">
-        <v>0.0002273913148859713</v>
+        <v>0.001934615837342041</v>
       </c>
       <c r="T8">
-        <v>0.0002779808411973714</v>
+        <v>0.002854864763166446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J9">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
         <v>0.5328405013495556</v>
@@ -1013,10 +1013,10 @@
         <v>4.795564512146</v>
       </c>
       <c r="S9">
-        <v>0.0001364008525023596</v>
+        <v>0.0001883013223533452</v>
       </c>
       <c r="T9">
-        <v>0.0002501205272790989</v>
+        <v>0.0004168074092550458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J10">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>0.012385160888</v>
+        <v>0.01613293727488889</v>
       </c>
       <c r="R10">
-        <v>0.111466447992</v>
+        <v>0.145196435474</v>
       </c>
       <c r="S10">
-        <v>3.170454384048091E-06</v>
+        <v>5.701243457678248E-06</v>
       </c>
       <c r="T10">
-        <v>5.813715293595552E-06</v>
+        <v>1.261977603464734E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J11">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>18.09179532604034</v>
+        <v>22.207562275352</v>
       </c>
       <c r="R11">
-        <v>108.550771956242</v>
+        <v>133.245373652112</v>
       </c>
       <c r="S11">
-        <v>0.004631285158541684</v>
+        <v>0.007847964507393453</v>
       </c>
       <c r="T11">
-        <v>0.005661643431025097</v>
+        <v>0.01158104720445194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,40 +1169,40 @@
         <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J12">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>2.978945897829334</v>
+        <v>0.06897072526555555</v>
       </c>
       <c r="R12">
-        <v>26.810513080464</v>
+        <v>0.62073652739</v>
       </c>
       <c r="S12">
-        <v>0.0007625748399252517</v>
+        <v>2.437367042910545E-05</v>
       </c>
       <c r="T12">
-        <v>0.001398346253360688</v>
+        <v>5.395143432146633E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.587866</v>
       </c>
       <c r="I13">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J13">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>0.02764661947711112</v>
+        <v>0.01757222919822222</v>
       </c>
       <c r="R13">
-        <v>0.248819575294</v>
+        <v>0.158150062784</v>
       </c>
       <c r="S13">
-        <v>7.077206886366955E-06</v>
+        <v>6.209877038890125E-06</v>
       </c>
       <c r="T13">
-        <v>1.297759277604772E-05</v>
+        <v>1.374564303651161E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H14">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I14">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J14">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>35.761519757799</v>
+        <v>127.550363006444</v>
       </c>
       <c r="R14">
-        <v>143.046079031196</v>
+        <v>510.201452025776</v>
       </c>
       <c r="S14">
-        <v>0.009154525171020634</v>
+        <v>0.04507521849396038</v>
       </c>
       <c r="T14">
-        <v>0.007460802710894929</v>
+        <v>0.0443442570480328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H15">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I15">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J15">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>21.451574719069</v>
+        <v>12.41481722477817</v>
       </c>
       <c r="R15">
-        <v>128.709448314414</v>
+        <v>74.48890334866901</v>
       </c>
       <c r="S15">
-        <v>0.005491348859158036</v>
+        <v>0.004387291308149292</v>
       </c>
       <c r="T15">
-        <v>0.006713052237472028</v>
+        <v>0.006474217319853041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H16">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I16">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J16">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>0.498613006188</v>
+        <v>0.3758863432101667</v>
       </c>
       <c r="R16">
-        <v>2.991678037128</v>
+        <v>2.255318059261</v>
       </c>
       <c r="S16">
-        <v>0.00012763901944494</v>
+        <v>0.000132835051580669</v>
       </c>
       <c r="T16">
-        <v>0.0001560358715226421</v>
+        <v>0.0001960214016401655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H17">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I17">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J17">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>728.3558555622195</v>
+        <v>517.4209279476421</v>
       </c>
       <c r="R17">
-        <v>2913.423422248878</v>
+        <v>2069.683711790568</v>
       </c>
       <c r="S17">
-        <v>0.1864504657062423</v>
+        <v>0.1828521756493111</v>
       </c>
       <c r="T17">
-        <v>0.1519543738207521</v>
+        <v>0.1798869567292624</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H18">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I18">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J18">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>119.929097637096</v>
+        <v>1.606970464639166</v>
       </c>
       <c r="R18">
-        <v>719.574585822576</v>
+        <v>9.641822787835</v>
       </c>
       <c r="S18">
-        <v>0.03070042745644651</v>
+        <v>0.0005678897582070541</v>
       </c>
       <c r="T18">
-        <v>0.03753059193901685</v>
+        <v>0.0008380208766903599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H19">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I19">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J19">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>1.113022606091</v>
+        <v>0.4094208551626667</v>
       </c>
       <c r="R19">
-        <v>6.678135636546001</v>
+        <v>2.456525130976</v>
       </c>
       <c r="S19">
-        <v>0.0002849205943254956</v>
+        <v>0.0001446858642143492</v>
       </c>
       <c r="T19">
-        <v>0.0003483091098917894</v>
+        <v>0.000213509352865285</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H20">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I20">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J20">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N20">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O20">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P20">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q20">
-        <v>41.272615952496</v>
+        <v>0.219418077648</v>
       </c>
       <c r="R20">
-        <v>247.635695714976</v>
+        <v>1.316508465888</v>
       </c>
       <c r="S20">
-        <v>0.0105653004729642</v>
+        <v>7.754049113140268E-05</v>
       </c>
       <c r="T20">
-        <v>0.0129158455961713</v>
+        <v>0.0001144245857894959</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H21">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I21">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J21">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P21">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q21">
-        <v>24.757409946576</v>
+        <v>0.021356547058</v>
       </c>
       <c r="R21">
-        <v>222.816689519184</v>
+        <v>0.192208923522</v>
       </c>
       <c r="S21">
-        <v>0.006337603492809604</v>
+        <v>7.547222933950117E-06</v>
       </c>
       <c r="T21">
-        <v>0.01162136964855095</v>
+        <v>1.670587544928162E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H22">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I22">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J22">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N22">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O22">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P22">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q22">
-        <v>0.5754527003519999</v>
+        <v>0.0006466172020000001</v>
       </c>
       <c r="R22">
-        <v>5.179074303168</v>
+        <v>0.005819554818</v>
       </c>
       <c r="S22">
-        <v>0.0001473090703578199</v>
+        <v>2.285090451732451E-07</v>
       </c>
       <c r="T22">
-        <v>0.0002701231090198238</v>
+        <v>5.058077230667545E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H23">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I23">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J23">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N23">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O23">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P23">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q23">
-        <v>840.600503193528</v>
+        <v>0.890091589464</v>
       </c>
       <c r="R23">
-        <v>5043.603019161168</v>
+        <v>5.340549536784001</v>
       </c>
       <c r="S23">
-        <v>0.2151837650462141</v>
+        <v>0.0003145508325421176</v>
       </c>
       <c r="T23">
-        <v>0.2630573821588578</v>
+        <v>0.0004641748871873803</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H24">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I24">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J24">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N24">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O24">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P24">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q24">
-        <v>138.410996563584</v>
+        <v>0.00276438547</v>
       </c>
       <c r="R24">
-        <v>1245.698969072256</v>
+        <v>0.02487946923</v>
       </c>
       <c r="S24">
-        <v>0.03543157451274283</v>
+        <v>9.769104228694679E-07</v>
       </c>
       <c r="T24">
-        <v>0.06497147148917277</v>
+        <v>2.16240383945047E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H25">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I25">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J25">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,400 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N25">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O25">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P25">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q25">
-        <v>1.284547046064</v>
+        <v>0.000704304832</v>
       </c>
       <c r="R25">
-        <v>11.560923414576</v>
+        <v>0.006338743488</v>
       </c>
       <c r="S25">
-        <v>0.0003288288178521427</v>
+        <v>2.488953652538659E-07</v>
       </c>
       <c r="T25">
-        <v>0.0006029789095659641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J26">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>4.533117</v>
-      </c>
-      <c r="N26">
-        <v>9.066234</v>
-      </c>
-      <c r="O26">
-        <v>0.0394235894695292</v>
-      </c>
-      <c r="P26">
-        <v>0.03654333378744622</v>
-      </c>
-      <c r="Q26">
-        <v>0.150976972724</v>
-      </c>
-      <c r="R26">
-        <v>0.9058618363439999</v>
-      </c>
-      <c r="S26">
-        <v>3.864831546329726E-05</v>
-      </c>
-      <c r="T26">
-        <v>4.724670882322936E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J27">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.719193666666667</v>
-      </c>
-      <c r="N27">
-        <v>8.157581</v>
-      </c>
-      <c r="O27">
-        <v>0.02364827000997559</v>
-      </c>
-      <c r="P27">
-        <v>0.03288081968556397</v>
-      </c>
-      <c r="Q27">
-        <v>0.09056365146622224</v>
-      </c>
-      <c r="R27">
-        <v>0.8150728631959999</v>
-      </c>
-      <c r="S27">
-        <v>2.318322131000222E-05</v>
-      </c>
-      <c r="T27">
-        <v>4.25114611214434E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J28">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.063204</v>
-      </c>
-      <c r="N28">
-        <v>0.189612</v>
-      </c>
-      <c r="O28">
-        <v>0.0005496722341011987</v>
-      </c>
-      <c r="P28">
-        <v>0.0007642704353434132</v>
-      </c>
-      <c r="Q28">
-        <v>0.002105030288</v>
-      </c>
-      <c r="R28">
-        <v>0.018945272592</v>
-      </c>
-      <c r="S28">
-        <v>5.388628024695238E-07</v>
-      </c>
-      <c r="T28">
-        <v>9.88121744198326E-07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J29">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>92.32611850000001</v>
-      </c>
-      <c r="N29">
-        <v>184.652237</v>
-      </c>
-      <c r="O29">
-        <v>0.802941330007389</v>
-      </c>
-      <c r="P29">
-        <v>0.7442790833867324</v>
-      </c>
-      <c r="Q29">
-        <v>3.074952152015333</v>
-      </c>
-      <c r="R29">
-        <v>18.449712912092</v>
-      </c>
-      <c r="S29">
-        <v>0.0007871513030194822</v>
-      </c>
-      <c r="T29">
-        <v>0.0009622750168478929</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J30">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>15.202168</v>
-      </c>
-      <c r="N30">
-        <v>45.606504</v>
-      </c>
-      <c r="O30">
-        <v>0.1322101393541825</v>
-      </c>
-      <c r="P30">
-        <v>0.1838264596469164</v>
-      </c>
-      <c r="Q30">
-        <v>0.5063132726293333</v>
-      </c>
-      <c r="R30">
-        <v>4.556819453664</v>
-      </c>
-      <c r="S30">
-        <v>0.0001296101963814397</v>
-      </c>
-      <c r="T30">
-        <v>0.0002376683874399718</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J31">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.1410863333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.4232590000000001</v>
-      </c>
-      <c r="O31">
-        <v>0.001226998924822476</v>
-      </c>
-      <c r="P31">
-        <v>0.001706033057997478</v>
-      </c>
-      <c r="Q31">
-        <v>0.004698927360444445</v>
-      </c>
-      <c r="R31">
-        <v>0.042290346244</v>
-      </c>
-      <c r="S31">
-        <v>1.202869707141152E-06</v>
-      </c>
-      <c r="T31">
-        <v>2.205722324154797E-06</v>
+        <v>5.509331058885641E-07</v>
       </c>
     </row>
   </sheetData>
